--- a/data/raw_analysis/unique_manufacturer.xlsx
+++ b/data/raw_analysis/unique_manufacturer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1121">
   <si>
     <t>FRISART</t>
   </si>
@@ -1063,6 +1063,9 @@
     <t>ROMEU CALAMITA &amp; CIA LTDA.</t>
   </si>
   <si>
+    <t>ima</t>
+  </si>
+  <si>
     <t>RF</t>
   </si>
   <si>
@@ -2218,31 +2221,88 @@
     <t>ZM</t>
   </si>
   <si>
-    <t>ima</t>
-  </si>
-  <si>
-    <t>MIDE PARTS</t>
-  </si>
-  <si>
-    <t>ATE FREIOS</t>
-  </si>
-  <si>
-    <t>COFAP / BANDEJAS</t>
-  </si>
-  <si>
-    <t>FRAS-LE</t>
+    <t>MIDE P4RTS</t>
+  </si>
+  <si>
+    <t>4TE FREIOS</t>
+  </si>
+  <si>
+    <t>4PLIC</t>
+  </si>
+  <si>
+    <t>S4CHS</t>
+  </si>
+  <si>
+    <t>COF4P</t>
+  </si>
+  <si>
+    <t>COF4P / 114NDEJ4S</t>
+  </si>
+  <si>
+    <t>FR4S-LE</t>
   </si>
   <si>
     <t>CONTROIL FREIOS</t>
   </si>
   <si>
+    <t>V4RG4</t>
+  </si>
+  <si>
     <t>HIPPER FREIOS</t>
   </si>
   <si>
+    <t>M4GNETI M4RELLI</t>
+  </si>
+  <si>
+    <t>11ROSOL</t>
+  </si>
+  <si>
+    <t>N4K4T4</t>
+  </si>
+  <si>
+    <t>DYN4</t>
+  </si>
+  <si>
+    <t>MET4L LEVE</t>
+  </si>
+  <si>
+    <t>SCH4DEK</t>
+  </si>
+  <si>
+    <t>11OSCH</t>
+  </si>
+  <si>
     <t>SIEMENS VDO</t>
   </si>
   <si>
-    <t>NTN ROLAMENTOS</t>
+    <t>S411O</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>F4G</t>
+  </si>
+  <si>
+    <t>NTN ROL4MENTOS</t>
+  </si>
+  <si>
+    <t>IM4</t>
+  </si>
+  <si>
+    <t>FREM4X</t>
+  </si>
+  <si>
+    <t>INDIS4</t>
+  </si>
+  <si>
+    <t>UR114</t>
+  </si>
+  <si>
+    <t>4XIOS</t>
+  </si>
+  <si>
+    <t>S4MPEL</t>
   </si>
   <si>
     <t>VGER CIE</t>
@@ -2251,28 +2311,49 @@
     <t>MTE - THOMSON</t>
   </si>
   <si>
-    <t>THERMAL (WAHLER)</t>
+    <t>T4NCLICK</t>
+  </si>
+  <si>
+    <t>THERM4L (W4HLER)</t>
+  </si>
+  <si>
+    <t>V4LEO</t>
+  </si>
+  <si>
+    <t>V4LCLEI</t>
   </si>
   <si>
     <t>DENSO</t>
   </si>
   <si>
-    <t>SNAP-ON</t>
-  </si>
-  <si>
-    <t>MAXON OIL</t>
+    <t>PETRON4S</t>
+  </si>
+  <si>
+    <t>SN4P-ON</t>
+  </si>
+  <si>
+    <t>M4XON OIL</t>
   </si>
   <si>
     <t>TIRRENO</t>
   </si>
   <si>
-    <t>VOLDA</t>
-  </si>
-  <si>
-    <t>MANN FILTROS</t>
-  </si>
-  <si>
-    <t>A J E</t>
+    <t>VOLD4</t>
+  </si>
+  <si>
+    <t>M4NN FILTROS</t>
+  </si>
+  <si>
+    <t>WEG4</t>
+  </si>
+  <si>
+    <t>D4YCO</t>
+  </si>
+  <si>
+    <t>4 J E</t>
+  </si>
+  <si>
+    <t>CO11REQ</t>
   </si>
   <si>
     <t>POSITRON</t>
@@ -2281,7 +2362,7 @@
     <t>PIONEER</t>
   </si>
   <si>
-    <t>JBL</t>
+    <t>J11L</t>
   </si>
   <si>
     <t>PHILIPS</t>
@@ -2290,10 +2371,13 @@
     <t>STETSOM</t>
   </si>
   <si>
-    <t>TARAMPS</t>
-  </si>
-  <si>
-    <t>MULTILASER</t>
+    <t>T4R4MPS</t>
+  </si>
+  <si>
+    <t>MULTIL4SER</t>
+  </si>
+  <si>
+    <t>HELL4</t>
   </si>
   <si>
     <t>KX3</t>
@@ -2302,19 +2386,22 @@
     <t>TECH ONE</t>
   </si>
   <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>MAGNETRON</t>
+    <t>LUC4S</t>
+  </si>
+  <si>
+    <t>M4GNETRON</t>
   </si>
   <si>
     <t>HENKEL</t>
   </si>
   <si>
-    <t>KIT &amp; CIA</t>
-  </si>
-  <si>
-    <t>MOPAR-FIAT</t>
+    <t>KIT &amp; CI4</t>
+  </si>
+  <si>
+    <t>FR4M</t>
+  </si>
+  <si>
+    <t>MOP4R-FI4T</t>
   </si>
   <si>
     <t>POLYVOX</t>
@@ -3043,7 +3130,10 @@
     <t>ZL BRASIL</t>
   </si>
   <si>
-    <t>Mte</t>
+    <t>mte</t>
+  </si>
+  <si>
+    <t>bosch</t>
   </si>
   <si>
     <t>VETOR AUTOMOTIVOS</t>
@@ -3644,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1093"/>
+  <dimension ref="A1:B1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12388,6 +12478,246 @@
         <v>1090</v>
       </c>
     </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="A1097" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="A1103" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="A1107" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="A1111" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="A1112" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="1">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="1">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="1">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="1">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="1">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="1">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
